--- a/1__Origen_Datos/FoodComposition.xlsx
+++ b/1__Origen_Datos/FoodComposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maike\Desktop\GitZone\NutriApp\1__Origen_Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C43C3-1688-4C7C-B712-09FF4F6AA203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE0F21-3B41-4F88-BDDD-B4A175B6C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodComposition" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8504" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8503" uniqueCount="935">
   <si>
     <t>true</t>
   </si>
@@ -1600,9 +1600,6 @@
   </si>
   <si>
     <t>0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                          </t>
   </si>
   <si>
     <t>21.62</t>
@@ -3240,8 +3237,8 @@
   <dimension ref="A1:AG296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,103 +3260,103 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3367,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C2" s="3">
         <v>716</v>
@@ -3468,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C3" s="3">
         <v>603</v>
@@ -3569,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C4" s="3">
         <v>616</v>
@@ -3670,10 +3667,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>525</v>
+        <v>541</v>
+      </c>
+      <c r="C5" s="3">
+        <v>269</v>
       </c>
       <c r="D5" s="3">
         <v>14</v>
@@ -3771,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C6" s="3">
         <v>604</v>
@@ -3872,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C7" s="3">
         <v>710</v>
@@ -3973,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" s="3">
         <v>628</v>
@@ -4074,7 +4071,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C9" s="3">
         <v>609</v>
@@ -4175,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C10" s="3">
         <v>575</v>
@@ -4276,7 +4273,7 @@
         <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C11" s="3">
         <v>169</v>
@@ -4377,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C12" s="3">
         <v>671</v>
@@ -4478,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C13" s="3">
         <v>541</v>
@@ -4579,7 +4576,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C14" s="3">
         <v>573</v>
@@ -4680,7 +4677,7 @@
         <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C15" s="3">
         <v>565</v>
@@ -4781,7 +4778,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C16" s="3">
         <v>607</v>
@@ -4882,7 +4879,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C17" s="3">
         <v>416</v>
@@ -4983,7 +4980,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C18" s="3">
         <v>347</v>
@@ -5084,7 +5081,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C19" s="3">
         <v>344</v>
@@ -5185,7 +5182,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" s="3">
         <v>349</v>
@@ -5286,7 +5283,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C21" s="3">
         <v>389</v>
@@ -5387,7 +5384,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C22" s="3">
         <v>343</v>
@@ -5488,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C23" s="3">
         <v>379</v>
@@ -5589,7 +5586,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C24" s="3">
         <v>339</v>
@@ -5690,7 +5687,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C25" s="3">
         <v>322</v>
@@ -5791,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C26" s="3">
         <v>368</v>
@@ -5892,7 +5889,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C27" s="3">
         <v>369</v>
@@ -5993,7 +5990,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C28" s="3">
         <v>353</v>
@@ -6094,7 +6091,7 @@
         <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C29" s="3">
         <v>359</v>
@@ -6195,7 +6192,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C30" s="3">
         <v>359</v>
@@ -6296,7 +6293,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C31" s="3">
         <v>347</v>
@@ -6397,7 +6394,7 @@
         <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C32" s="3">
         <v>355</v>
@@ -6498,7 +6495,7 @@
         <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C33" s="3">
         <v>359</v>
@@ -6599,7 +6596,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C34" s="3">
         <v>347</v>
@@ -6700,7 +6697,7 @@
         <v>350</v>
       </c>
       <c r="B35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C35" s="3">
         <v>347</v>
@@ -6801,7 +6798,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C36" s="3">
         <v>72</v>
@@ -6902,7 +6899,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C37" s="3">
         <v>55</v>
@@ -7003,7 +7000,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C38" s="3">
         <v>375</v>
@@ -7104,7 +7101,7 @@
         <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C39" s="3">
         <v>345</v>
@@ -7205,7 +7202,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C40" s="3">
         <v>575</v>
@@ -7306,7 +7303,7 @@
         <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C41" s="3">
         <v>481</v>
@@ -7407,7 +7404,7 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C42" s="3">
         <v>610</v>
@@ -7508,7 +7505,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C43" s="3">
         <v>612</v>
@@ -7609,7 +7606,7 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C44" s="3">
         <v>104</v>
@@ -7710,7 +7707,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C45" s="3">
         <v>149</v>
@@ -7811,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" s="3">
         <v>109</v>
@@ -7912,7 +7909,7 @@
         <v>250</v>
       </c>
       <c r="B47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C47" s="3">
         <v>578</v>
@@ -8013,7 +8010,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C48" s="3">
         <v>149</v>
@@ -8114,7 +8111,7 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C49" s="3">
         <v>363</v>
@@ -8215,7 +8212,7 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C50" s="3">
         <v>107</v>
@@ -8316,7 +8313,7 @@
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C51" s="3">
         <v>127</v>
@@ -8417,7 +8414,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C52" s="3">
         <v>108</v>
@@ -8518,7 +8515,7 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C53" s="3">
         <v>155</v>
@@ -8619,7 +8616,7 @@
         <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C54" s="3">
         <v>120</v>
@@ -8720,7 +8717,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C55" s="3">
         <v>52</v>
@@ -8821,7 +8818,7 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C56" s="3">
         <v>79</v>
@@ -8922,7 +8919,7 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C57" s="3">
         <v>157</v>
@@ -9023,7 +9020,7 @@
         <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C58" s="3">
         <v>152</v>
@@ -9124,7 +9121,7 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C59" s="3">
         <v>142</v>
@@ -9225,7 +9222,7 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C60" s="3">
         <v>119</v>
@@ -9326,7 +9323,7 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C61" s="3">
         <v>275</v>
@@ -9427,7 +9424,7 @@
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C62" s="3">
         <v>160</v>
@@ -9528,7 +9525,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C63" s="3">
         <v>184</v>
@@ -9629,7 +9626,7 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C64" s="3">
         <v>152</v>
@@ -9730,7 +9727,7 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C65" s="3">
         <v>136</v>
@@ -9831,7 +9828,7 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C66" s="3">
         <v>120</v>
@@ -9932,7 +9929,7 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C67" s="3">
         <v>129</v>
@@ -10033,7 +10030,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C68" s="3">
         <v>120</v>
@@ -10134,7 +10131,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C69" s="3">
         <v>212</v>
@@ -10235,7 +10232,7 @@
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C70" s="3">
         <v>127</v>
@@ -10336,7 +10333,7 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C71" s="3">
         <v>131</v>
@@ -10437,7 +10434,7 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C72" s="3">
         <v>154</v>
@@ -10538,7 +10535,7 @@
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C73" s="3">
         <v>151</v>
@@ -10639,7 +10636,7 @@
         <v>389</v>
       </c>
       <c r="B74" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C74" s="3">
         <v>133</v>
@@ -10740,7 +10737,7 @@
         <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C75" s="3">
         <v>135</v>
@@ -10841,7 +10838,7 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C76" s="3">
         <v>119</v>
@@ -10942,7 +10939,7 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C77" s="3">
         <v>112</v>
@@ -11043,7 +11040,7 @@
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C78" s="3">
         <v>139</v>
@@ -11144,7 +11141,7 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C79" s="3">
         <v>222</v>
@@ -11245,7 +11242,7 @@
         <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C80" s="3">
         <v>130</v>
@@ -11346,7 +11343,7 @@
         <v>402</v>
       </c>
       <c r="B81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C81" s="3">
         <v>222</v>
@@ -11447,7 +11444,7 @@
         <v>403</v>
       </c>
       <c r="B82" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C82" s="3">
         <v>156</v>
@@ -11548,7 +11545,7 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C83" s="3">
         <v>467</v>
@@ -11649,7 +11646,7 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C84" s="3">
         <v>222</v>
@@ -11750,7 +11747,7 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C85" s="3">
         <v>358</v>
@@ -11851,7 +11848,7 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C86" s="3">
         <v>402</v>
@@ -11952,7 +11949,7 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C87" s="3">
         <v>326</v>
@@ -12053,7 +12050,7 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C88" s="3">
         <v>221</v>
@@ -12154,7 +12151,7 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C89" s="3">
         <v>148</v>
@@ -12255,7 +12252,7 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C90" s="3">
         <v>131</v>
@@ -12356,7 +12353,7 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C91" s="3">
         <v>172</v>
@@ -12457,7 +12454,7 @@
         <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C92" s="3">
         <v>212</v>
@@ -12558,7 +12555,7 @@
         <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C93" s="3">
         <v>182</v>
@@ -12659,7 +12656,7 @@
         <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C94" s="3">
         <v>137</v>
@@ -12760,7 +12757,7 @@
         <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C95" s="3">
         <v>248</v>
@@ -12861,7 +12858,7 @@
         <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C96" s="3">
         <v>156</v>
@@ -12962,7 +12959,7 @@
         <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C97" s="3">
         <v>89</v>
@@ -13063,7 +13060,7 @@
         <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C98" s="3">
         <v>161</v>
@@ -13164,7 +13161,7 @@
         <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C99" s="3">
         <v>135</v>
@@ -13265,7 +13262,7 @@
         <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C100" s="3">
         <v>161</v>
@@ -13366,7 +13363,7 @@
         <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C101" s="3">
         <v>228</v>
@@ -13467,7 +13464,7 @@
         <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C102" s="3">
         <v>218</v>
@@ -13568,7 +13565,7 @@
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C103" s="3">
         <v>160</v>
@@ -13669,7 +13666,7 @@
         <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C104" s="3">
         <v>165</v>
@@ -13770,7 +13767,7 @@
         <v>91</v>
       </c>
       <c r="B105" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C105" s="3">
         <v>373</v>
@@ -13871,7 +13868,7 @@
         <v>423</v>
       </c>
       <c r="B106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C106" s="3">
         <v>378</v>
@@ -13972,7 +13969,7 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C107" s="3">
         <v>375</v>
@@ -14073,7 +14070,7 @@
         <v>424</v>
       </c>
       <c r="B108" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C108" s="3">
         <v>374</v>
@@ -14174,7 +14171,7 @@
         <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C109" s="3">
         <v>367</v>
@@ -14275,7 +14272,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C110" s="3">
         <v>369</v>
@@ -14376,7 +14373,7 @@
         <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C111" s="3">
         <v>396</v>
@@ -14477,7 +14474,7 @@
         <v>95</v>
       </c>
       <c r="B112" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C112" s="3">
         <v>384</v>
@@ -14578,7 +14575,7 @@
         <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C113" s="3">
         <v>359</v>
@@ -14679,7 +14676,7 @@
         <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C114" s="3">
         <v>318</v>
@@ -14780,7 +14777,7 @@
         <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C115" s="3">
         <v>361</v>
@@ -14881,7 +14878,7 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C116" s="3">
         <v>556</v>
@@ -14982,7 +14979,7 @@
         <v>444</v>
       </c>
       <c r="B117" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C117" s="3">
         <v>389</v>
@@ -15083,7 +15080,7 @@
         <v>445</v>
       </c>
       <c r="B118" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C118" s="3">
         <v>432</v>
@@ -15184,7 +15181,7 @@
         <v>447</v>
       </c>
       <c r="B119" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C119" s="3">
         <v>398</v>
@@ -15285,7 +15282,7 @@
         <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C120" s="3">
         <v>408</v>
@@ -15383,7 +15380,7 @@
         <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C121" s="3">
         <v>423</v>
@@ -15484,7 +15481,7 @@
         <v>449</v>
       </c>
       <c r="B122" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C122" s="3">
         <v>464</v>
@@ -15585,7 +15582,7 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C123" s="3">
         <v>423</v>
@@ -15686,7 +15683,7 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C124" s="3">
         <v>472</v>
@@ -15787,7 +15784,7 @@
         <v>454</v>
       </c>
       <c r="B125" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C125" s="3">
         <v>437</v>
@@ -15888,7 +15885,7 @@
         <v>455</v>
       </c>
       <c r="B126" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C126" s="3">
         <v>428</v>
@@ -15989,7 +15986,7 @@
         <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C127" s="3">
         <v>406</v>
@@ -16090,7 +16087,7 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C128" s="3">
         <v>498</v>
@@ -16191,7 +16188,7 @@
         <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C129" s="3">
         <v>389</v>
@@ -16292,7 +16289,7 @@
         <v>459</v>
       </c>
       <c r="B130" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C130" s="3">
         <v>475</v>
@@ -16393,7 +16390,7 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C131" s="3">
         <v>95</v>
@@ -16494,7 +16491,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C132" s="3">
         <v>82</v>
@@ -16595,7 +16592,7 @@
         <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C133" s="3">
         <v>273</v>
@@ -16696,7 +16693,7 @@
         <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C134" s="3">
         <v>70</v>
@@ -16797,7 +16794,7 @@
         <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C135" s="3">
         <v>103</v>
@@ -16898,7 +16895,7 @@
         <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C136" s="3">
         <v>107</v>
@@ -16999,7 +16996,7 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C137" s="3">
         <v>85</v>
@@ -17100,7 +17097,7 @@
         <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C138" s="3">
         <v>76</v>
@@ -17201,7 +17198,7 @@
         <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C139" s="3">
         <v>107</v>
@@ -17302,7 +17299,7 @@
         <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C140" s="3">
         <v>84</v>
@@ -17403,7 +17400,7 @@
         <v>118</v>
       </c>
       <c r="B141" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C141" s="3">
         <v>173</v>
@@ -17504,7 +17501,7 @@
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C142" s="3">
         <v>84</v>
@@ -17605,7 +17602,7 @@
         <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C143" s="3">
         <v>101</v>
@@ -17706,7 +17703,7 @@
         <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C144" s="3">
         <v>98</v>
@@ -17807,7 +17804,7 @@
         <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C145" s="3">
         <v>109</v>
@@ -17908,7 +17905,7 @@
         <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C146" s="3">
         <v>127</v>
@@ -18009,7 +18006,7 @@
         <v>121</v>
       </c>
       <c r="B147" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C147" s="3">
         <v>161</v>
@@ -18110,7 +18107,7 @@
         <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C148" s="3">
         <v>260</v>
@@ -18211,7 +18208,7 @@
         <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C149" s="3">
         <v>333</v>
@@ -18312,7 +18309,7 @@
         <v>124</v>
       </c>
       <c r="B150" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C150" s="3">
         <v>201</v>
@@ -18413,7 +18410,7 @@
         <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C151" s="3">
         <v>254</v>
@@ -18514,7 +18511,7 @@
         <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C152" s="3">
         <v>244</v>
@@ -18615,7 +18612,7 @@
         <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C153" s="3">
         <v>162</v>
@@ -18716,7 +18713,7 @@
         <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C154" s="3">
         <v>421</v>
@@ -18817,7 +18814,7 @@
         <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C155" s="3">
         <v>458</v>
@@ -18918,7 +18915,7 @@
         <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C156" s="3">
         <v>462</v>
@@ -19019,7 +19016,7 @@
         <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C157" s="3">
         <v>431</v>
@@ -19120,7 +19117,7 @@
         <v>256</v>
       </c>
       <c r="B158" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C158" s="3">
         <v>210</v>
@@ -19221,7 +19218,7 @@
         <v>132</v>
       </c>
       <c r="B159" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C159" s="3">
         <v>234</v>
@@ -19322,7 +19319,7 @@
         <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C160" s="3">
         <v>304</v>
@@ -19423,7 +19420,7 @@
         <v>257</v>
       </c>
       <c r="B161" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C161" s="3">
         <v>347</v>
@@ -19524,7 +19521,7 @@
         <v>134</v>
       </c>
       <c r="B162" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C162" s="3">
         <v>172</v>
@@ -19625,7 +19622,7 @@
         <v>135</v>
       </c>
       <c r="B163" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C163" s="3">
         <v>164</v>
@@ -19726,7 +19723,7 @@
         <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C164" s="3">
         <v>569</v>
@@ -19827,7 +19824,7 @@
         <v>137</v>
       </c>
       <c r="B165" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C165" s="3">
         <v>609</v>
@@ -19928,7 +19925,7 @@
         <v>138</v>
       </c>
       <c r="B166" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C166" s="3">
         <v>426</v>
@@ -20029,7 +20026,7 @@
         <v>141</v>
       </c>
       <c r="B167" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C167" s="3">
         <v>417</v>
@@ -20130,7 +20127,7 @@
         <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C168" s="3">
         <v>433</v>
@@ -20231,7 +20228,7 @@
         <v>140</v>
       </c>
       <c r="B169" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C169" s="3">
         <v>392</v>
@@ -20332,7 +20329,7 @@
         <v>142</v>
       </c>
       <c r="B170" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C170" s="3">
         <v>231</v>
@@ -20433,7 +20430,7 @@
         <v>143</v>
       </c>
       <c r="B171" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C171" s="3">
         <v>202</v>
@@ -20534,7 +20531,7 @@
         <v>144</v>
       </c>
       <c r="B172" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C172" s="3">
         <v>321</v>
@@ -20635,7 +20632,7 @@
         <v>145</v>
       </c>
       <c r="B173" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C173" s="3">
         <v>392</v>
@@ -20736,7 +20733,7 @@
         <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C174" s="3">
         <v>369</v>
@@ -20837,7 +20834,7 @@
         <v>147</v>
       </c>
       <c r="B175" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C175" s="3">
         <v>337</v>
@@ -20938,7 +20935,7 @@
         <v>148</v>
       </c>
       <c r="B176" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C176" s="3">
         <v>410</v>
@@ -21039,7 +21036,7 @@
         <v>149</v>
       </c>
       <c r="B177" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C177" s="3">
         <v>356</v>
@@ -21140,7 +21137,7 @@
         <v>150</v>
       </c>
       <c r="B178" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C178" s="3">
         <v>348</v>
@@ -21241,7 +21238,7 @@
         <v>151</v>
       </c>
       <c r="B179" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C179" s="3">
         <v>318</v>
@@ -21342,7 +21339,7 @@
         <v>152</v>
       </c>
       <c r="B180" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C180" s="3">
         <v>398</v>
@@ -21443,7 +21440,7 @@
         <v>153</v>
       </c>
       <c r="B181" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C181" s="3">
         <v>398</v>
@@ -21544,7 +21541,7 @@
         <v>154</v>
       </c>
       <c r="B182" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C182" s="3">
         <v>357</v>
@@ -21645,7 +21642,7 @@
         <v>155</v>
       </c>
       <c r="B183" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C183" s="3">
         <v>375</v>
@@ -21746,7 +21743,7 @@
         <v>156</v>
       </c>
       <c r="B184" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C184" s="3">
         <v>196</v>
@@ -21847,7 +21844,7 @@
         <v>504</v>
       </c>
       <c r="B185" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C185" s="3">
         <v>196</v>
@@ -21948,7 +21945,7 @@
         <v>503</v>
       </c>
       <c r="B186" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C186" s="3">
         <v>194</v>
@@ -22049,7 +22046,7 @@
         <v>157</v>
       </c>
       <c r="B187" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C187" s="3">
         <v>360</v>
@@ -22150,7 +22147,7 @@
         <v>158</v>
       </c>
       <c r="B188" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C188" s="3">
         <v>164</v>
@@ -22251,7 +22248,7 @@
         <v>258</v>
       </c>
       <c r="B189" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C189" s="3">
         <v>72</v>
@@ -22352,7 +22349,7 @@
         <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C190" s="3">
         <v>68</v>
@@ -22453,7 +22450,7 @@
         <v>508</v>
       </c>
       <c r="B191" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C191" s="3">
         <v>305</v>
@@ -22554,7 +22551,7 @@
         <v>160</v>
       </c>
       <c r="B192" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C192" s="3">
         <v>335</v>
@@ -22655,7 +22652,7 @@
         <v>161</v>
       </c>
       <c r="B193" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C193" s="3">
         <v>335</v>
@@ -22756,7 +22753,7 @@
         <v>162</v>
       </c>
       <c r="B194" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C194" s="3">
         <v>335</v>
@@ -22857,7 +22854,7 @@
         <v>163</v>
       </c>
       <c r="B195" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C195" s="3">
         <v>60</v>
@@ -22958,7 +22955,7 @@
         <v>164</v>
       </c>
       <c r="B196" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C196" s="3">
         <v>132</v>
@@ -23059,7 +23056,7 @@
         <v>165</v>
       </c>
       <c r="B197" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C197" s="3">
         <v>100</v>
@@ -23160,7 +23157,7 @@
         <v>166</v>
       </c>
       <c r="B198" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C198" s="3">
         <v>62</v>
@@ -23261,7 +23258,7 @@
         <v>167</v>
       </c>
       <c r="B199" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C199" s="3">
         <v>79</v>
@@ -23362,7 +23359,7 @@
         <v>168</v>
       </c>
       <c r="B200" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C200" s="3">
         <v>146</v>
@@ -23374,19 +23371,19 @@
         <v>0</v>
       </c>
       <c r="F200" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="H200" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="I200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J200" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="I200" s="3">
-        <v>0</v>
-      </c>
-      <c r="J200" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="K200" s="8" t="s">
         <v>1</v>
@@ -23463,25 +23460,25 @@
         <v>169</v>
       </c>
       <c r="B201" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C201" s="3">
         <v>92</v>
       </c>
       <c r="D201" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H201" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="E201" s="3">
-        <v>0</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="I201" s="3">
         <v>0</v>
@@ -23564,7 +23561,7 @@
         <v>259</v>
       </c>
       <c r="B202" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C202" s="3">
         <v>188</v>
@@ -23665,7 +23662,7 @@
         <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C203" s="3">
         <v>82</v>
@@ -23677,19 +23674,19 @@
         <v>0</v>
       </c>
       <c r="F203" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="H203" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="I203" s="3">
+        <v>0</v>
+      </c>
+      <c r="J203" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="I203" s="3">
-        <v>0</v>
-      </c>
-      <c r="J203" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="K203" s="8" t="s">
         <v>1</v>
@@ -23766,7 +23763,7 @@
         <v>171</v>
       </c>
       <c r="B204" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C204" s="3">
         <v>60</v>
@@ -23867,7 +23864,7 @@
         <v>172</v>
       </c>
       <c r="B205" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C205" s="3">
         <v>58</v>
@@ -23968,7 +23965,7 @@
         <v>173</v>
       </c>
       <c r="B206" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C206" s="3">
         <v>206</v>
@@ -24069,7 +24066,7 @@
         <v>174</v>
       </c>
       <c r="B207" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C207" s="3">
         <v>163</v>
@@ -24170,7 +24167,7 @@
         <v>175</v>
       </c>
       <c r="B208" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C208" s="3">
         <v>84</v>
@@ -24271,7 +24268,7 @@
         <v>176</v>
       </c>
       <c r="B209" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C209" s="3">
         <v>227</v>
@@ -24286,7 +24283,7 @@
         <v>482</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>475</v>
@@ -24372,7 +24369,7 @@
         <v>177</v>
       </c>
       <c r="B210" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C210" s="3">
         <v>308</v>
@@ -24473,7 +24470,7 @@
         <v>178</v>
       </c>
       <c r="B211" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C211" s="3">
         <v>179</v>
@@ -24574,7 +24571,7 @@
         <v>179</v>
       </c>
       <c r="B212" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C212" s="3">
         <v>289</v>
@@ -24675,7 +24672,7 @@
         <v>180</v>
       </c>
       <c r="B213" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C213" s="3">
         <v>366</v>
@@ -24693,13 +24690,13 @@
         <v>33</v>
       </c>
       <c r="H213" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="I213" s="3">
-        <v>0</v>
-      </c>
-      <c r="J213" s="8" t="s">
-        <v>751</v>
       </c>
       <c r="K213" s="8" t="s">
         <v>1</v>
@@ -24776,7 +24773,7 @@
         <v>181</v>
       </c>
       <c r="B214" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C214" s="3">
         <v>53</v>
@@ -24877,7 +24874,7 @@
         <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C215" s="3">
         <v>162</v>
@@ -24978,7 +24975,7 @@
         <v>183</v>
       </c>
       <c r="B216" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C216" s="3">
         <v>82</v>
@@ -25079,22 +25076,22 @@
         <v>184</v>
       </c>
       <c r="B217" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C217" s="3">
         <v>17</v>
       </c>
       <c r="D217" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="E217" s="3">
-        <v>0</v>
-      </c>
-      <c r="F217" s="3" t="s">
+      <c r="G217" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
@@ -25177,25 +25174,25 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B218" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C218" s="3">
         <v>117</v>
       </c>
       <c r="D218" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>360</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>369</v>
@@ -25278,10 +25275,10 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B219" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C219" s="3">
         <v>15</v>
@@ -25382,7 +25379,7 @@
         <v>260</v>
       </c>
       <c r="B220" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C220" s="3">
         <v>56</v>
@@ -25483,7 +25480,7 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C221" s="3">
         <v>74</v>
@@ -25584,7 +25581,7 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C222" s="3">
         <v>44</v>
@@ -25685,25 +25682,25 @@
         <v>187</v>
       </c>
       <c r="B223" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C223" s="3">
         <v>10</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>278</v>
       </c>
       <c r="F223" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="G223" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="H223" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="H223" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>291</v>
@@ -25786,7 +25783,7 @@
         <v>188</v>
       </c>
       <c r="B224" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C224" s="3">
         <v>4</v>
@@ -25887,7 +25884,7 @@
         <v>189</v>
       </c>
       <c r="B225" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C225" s="3">
         <v>5</v>
@@ -25988,7 +25985,7 @@
         <v>190</v>
       </c>
       <c r="B226" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C226" s="3">
         <v>5</v>
@@ -26089,7 +26086,7 @@
         <v>191</v>
       </c>
       <c r="B227" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C227" s="3">
         <v>6</v>
@@ -26190,7 +26187,7 @@
         <v>192</v>
       </c>
       <c r="B228" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C228" s="3">
         <v>22</v>
@@ -26291,22 +26288,22 @@
         <v>193</v>
       </c>
       <c r="B229" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C229" s="3">
         <v>79</v>
       </c>
       <c r="D229" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E229" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="F229" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="G229" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>287</v>
@@ -26392,13 +26389,13 @@
         <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C230" s="3">
         <v>120</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>488</v>
@@ -26493,7 +26490,7 @@
         <v>195</v>
       </c>
       <c r="B231" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C231" s="3">
         <v>94</v>
@@ -26591,22 +26588,22 @@
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B232" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C232" s="3">
         <v>67</v>
       </c>
       <c r="D232" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>788</v>
-      </c>
       <c r="F232" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>371</v>
@@ -26692,10 +26689,10 @@
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B233" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C233" s="3">
         <v>53</v>
@@ -26707,7 +26704,7 @@
         <v>298</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>394</v>
@@ -26793,10 +26790,10 @@
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B234" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C234" s="3">
         <v>53</v>
@@ -26817,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J234" s="8">
         <v>0</v>
@@ -26897,7 +26894,7 @@
         <v>196</v>
       </c>
       <c r="B235" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C235" s="3">
         <v>30</v>
@@ -26995,10 +26992,10 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B236" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C236" s="3">
         <v>36</v>
@@ -27010,7 +27007,7 @@
         <v>298</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>373</v>
@@ -27099,7 +27096,7 @@
         <v>197</v>
       </c>
       <c r="B237" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C237" s="3">
         <v>43</v>
@@ -27200,7 +27197,7 @@
         <v>198</v>
       </c>
       <c r="B238" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C238" s="3">
         <v>42</v>
@@ -27301,7 +27298,7 @@
         <v>199</v>
       </c>
       <c r="B239" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C239" s="3">
         <v>61</v>
@@ -27402,7 +27399,7 @@
         <v>200</v>
       </c>
       <c r="B240" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C240" s="3">
         <v>160</v>
@@ -27503,13 +27500,13 @@
         <v>261</v>
       </c>
       <c r="B241" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C241" s="3">
         <v>46</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>327</v>
@@ -27604,7 +27601,7 @@
         <v>201</v>
       </c>
       <c r="B242" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C242" s="3">
         <v>203</v>
@@ -27625,7 +27622,7 @@
         <v>3</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J242" s="8" t="s">
         <v>405</v>
@@ -27705,7 +27702,7 @@
         <v>202</v>
       </c>
       <c r="B243" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C243" s="3">
         <v>66</v>
@@ -27806,25 +27803,25 @@
         <v>203</v>
       </c>
       <c r="B244" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C244" s="3">
         <v>354</v>
       </c>
       <c r="D244" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="H244" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="I244" s="3">
         <v>9</v>
@@ -27907,22 +27904,22 @@
         <v>204</v>
       </c>
       <c r="B245" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C245" s="3">
         <v>231</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E245" s="3">
         <v>22</v>
       </c>
       <c r="F245" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="G245" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
@@ -28005,10 +28002,10 @@
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B246" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C246" s="3">
         <v>38</v>
@@ -28109,19 +28106,19 @@
         <v>205</v>
       </c>
       <c r="B247" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C247" s="3">
         <v>32</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E247" s="3">
         <v>2</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>319</v>
@@ -28210,22 +28207,22 @@
         <v>206</v>
       </c>
       <c r="B248" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C248" s="3">
         <v>50</v>
       </c>
       <c r="D248" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="G248" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
@@ -28311,22 +28308,22 @@
         <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C249" s="3">
         <v>50</v>
       </c>
       <c r="D249" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>824</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>287</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H249" s="3">
         <v>0</v>
@@ -28412,7 +28409,7 @@
         <v>208</v>
       </c>
       <c r="B250" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C250" s="3">
         <v>298</v>
@@ -28513,7 +28510,7 @@
         <v>209</v>
       </c>
       <c r="B251" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C251" s="3">
         <v>14</v>
@@ -28614,7 +28611,7 @@
         <v>210</v>
       </c>
       <c r="B252" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C252" s="3">
         <v>24</v>
@@ -28715,7 +28712,7 @@
         <v>211</v>
       </c>
       <c r="B253" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C253" s="3">
         <v>21</v>
@@ -28816,7 +28813,7 @@
         <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C254" s="3">
         <v>31</v>
@@ -28917,22 +28914,22 @@
         <v>213</v>
       </c>
       <c r="B255" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C255" s="3">
         <v>79</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>834</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>409</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>342</v>
@@ -29018,7 +29015,7 @@
         <v>214</v>
       </c>
       <c r="B256" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C256" s="3">
         <v>109</v>
@@ -29119,7 +29116,7 @@
         <v>215</v>
       </c>
       <c r="B257" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C257" s="3">
         <v>104</v>
@@ -29131,13 +29128,13 @@
         <v>521</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>410</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>277</v>
@@ -29220,7 +29217,7 @@
         <v>216</v>
       </c>
       <c r="B258" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C258" s="3">
         <v>107</v>
@@ -29229,7 +29226,7 @@
         <v>481</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>411</v>
@@ -29238,7 +29235,7 @@
         <v>291</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I258" s="3">
         <v>3</v>
@@ -29321,7 +29318,7 @@
         <v>217</v>
       </c>
       <c r="B259" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C259" s="3">
         <v>158</v>
@@ -29419,10 +29416,10 @@
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B260" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C260" s="3">
         <v>20</v>
@@ -29523,7 +29520,7 @@
         <v>218</v>
       </c>
       <c r="B261" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C261" s="3">
         <v>34</v>
@@ -29624,7 +29621,7 @@
         <v>219</v>
       </c>
       <c r="B262" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C262" s="3">
         <v>14</v>
@@ -29633,10 +29630,10 @@
         <v>348</v>
       </c>
       <c r="E262" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F262" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>848</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>373</v>
@@ -29725,7 +29722,7 @@
         <v>220</v>
       </c>
       <c r="B263" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C263" s="3">
         <v>26</v>
@@ -29823,28 +29820,28 @@
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B264" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C264" s="3">
         <v>16</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>485</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>401</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>281</v>
@@ -29927,19 +29924,19 @@
         <v>221</v>
       </c>
       <c r="B265" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C265" s="3">
         <v>20</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>394</v>
@@ -30028,7 +30025,7 @@
         <v>222</v>
       </c>
       <c r="B266" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C266" s="3">
         <v>24</v>
@@ -30037,7 +30034,7 @@
         <v>391</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>281</v>
@@ -30129,13 +30126,13 @@
         <v>223</v>
       </c>
       <c r="B267" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C267" s="3">
         <v>19</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>281</v>
@@ -30230,7 +30227,7 @@
         <v>224</v>
       </c>
       <c r="B268" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C268" s="3">
         <v>61</v>
@@ -30331,7 +30328,7 @@
         <v>225</v>
       </c>
       <c r="B269" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C269" s="3">
         <v>35</v>
@@ -30346,7 +30343,7 @@
         <v>281</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>371</v>
@@ -30432,7 +30429,7 @@
         <v>226</v>
       </c>
       <c r="B270" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C270" s="3">
         <v>18</v>
@@ -30533,7 +30530,7 @@
         <v>227</v>
       </c>
       <c r="B271" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C271" s="3">
         <v>150</v>
@@ -30545,7 +30542,7 @@
         <v>287</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>352</v>
@@ -30634,7 +30631,7 @@
         <v>228</v>
       </c>
       <c r="B272" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C272" s="3">
         <v>154</v>
@@ -30735,7 +30732,7 @@
         <v>229</v>
       </c>
       <c r="B273" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C273" s="3">
         <v>50</v>
@@ -30836,7 +30833,7 @@
         <v>230</v>
       </c>
       <c r="B274" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C274" s="3">
         <v>63</v>
@@ -30937,7 +30934,7 @@
         <v>231</v>
       </c>
       <c r="B275" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C275" s="3">
         <v>45</v>
@@ -30949,7 +30946,7 @@
         <v>346</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>405</v>
@@ -31038,7 +31035,7 @@
         <v>232</v>
       </c>
       <c r="B276" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C276" s="3">
         <v>34</v>
@@ -31139,7 +31136,7 @@
         <v>233</v>
       </c>
       <c r="B277" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C277" s="3">
         <v>62</v>
@@ -31240,7 +31237,7 @@
         <v>234</v>
       </c>
       <c r="B278" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C278" s="3">
         <v>86</v>
@@ -31341,7 +31338,7 @@
         <v>235</v>
       </c>
       <c r="B279" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C279" s="3">
         <v>46</v>
@@ -31442,7 +31439,7 @@
         <v>236</v>
       </c>
       <c r="B280" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C280" s="3">
         <v>84</v>
@@ -31543,7 +31540,7 @@
         <v>237</v>
       </c>
       <c r="B281" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C281" s="3">
         <v>32</v>
@@ -31644,7 +31641,7 @@
         <v>238</v>
       </c>
       <c r="B282" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C282" s="3">
         <v>36</v>
@@ -31745,7 +31742,7 @@
         <v>239</v>
       </c>
       <c r="B283" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C283" s="3">
         <v>38</v>
@@ -31754,7 +31751,7 @@
         <v>299</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>319</v>
@@ -31846,7 +31843,7 @@
         <v>240</v>
       </c>
       <c r="B284" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C284" s="3">
         <v>50</v>
@@ -31947,7 +31944,7 @@
         <v>241</v>
       </c>
       <c r="B285" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C285" s="3">
         <v>36</v>
@@ -32045,10 +32042,10 @@
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B286" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C286" s="3">
         <v>246</v>
@@ -32149,7 +32146,7 @@
         <v>242</v>
       </c>
       <c r="B287" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C287" s="3">
         <v>121</v>
@@ -32247,10 +32244,10 @@
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B288" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C288" s="3">
         <v>190</v>
@@ -32351,7 +32348,7 @@
         <v>243</v>
       </c>
       <c r="B289" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C289" s="3">
         <v>301</v>
@@ -32452,7 +32449,7 @@
         <v>244</v>
       </c>
       <c r="B290" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C290" s="3">
         <v>293</v>
@@ -32553,7 +32550,7 @@
         <v>245</v>
       </c>
       <c r="B291" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C291" s="3">
         <v>372</v>
@@ -32654,7 +32651,7 @@
         <v>262</v>
       </c>
       <c r="B292" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C292" s="3">
         <v>74</v>
@@ -32755,7 +32752,7 @@
         <v>263</v>
       </c>
       <c r="B293" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
@@ -32856,7 +32853,7 @@
         <v>264</v>
       </c>
       <c r="B294" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C294" s="3">
         <v>88</v>
@@ -32871,10 +32868,10 @@
         <v>466</v>
       </c>
       <c r="G294" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H294" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="H294" s="3" t="s">
-        <v>864</v>
       </c>
       <c r="I294" s="3">
         <v>0</v>
@@ -32957,7 +32954,7 @@
         <v>265</v>
       </c>
       <c r="B295" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C295" s="3">
         <v>43</v>
@@ -33058,7 +33055,7 @@
         <v>266</v>
       </c>
       <c r="B296" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C296" s="3">
         <v>36</v>

--- a/1__Origen_Datos/FoodComposition.xlsx
+++ b/1__Origen_Datos/FoodComposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maike\Desktop\GitZone\NutriApp\1__Origen_Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE0F21-3B41-4F88-BDDD-B4A175B6C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D00BC0-D700-4FF7-97E7-989B88C5FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3237,8 +3237,8 @@
   <dimension ref="A1:AG296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L284" sqref="L284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31772,7 +31772,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M283" s="8" t="s">
         <v>1</v>
@@ -31793,7 +31793,7 @@
         <v>1</v>
       </c>
       <c r="S283" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T283" s="8" t="s">
         <v>1</v>
